--- a/biology/Botanique/Posidonie_australienne/Posidonie_australienne.xlsx
+++ b/biology/Botanique/Posidonie_australienne/Posidonie_australienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Posidonia australis
 La Posidonie australienne (Posidonia australis) est une espèce de plantes aquatiques de la famille des Posidoniaceae. Cette Posidonie forme des herbiers dans les eaux au sud de l'Australie.
@@ -512,9 +524,11 @@
           <t>Le plus grand organisme vivant de la planète actuellement connu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des océanographes se sont rendu compte qu'un herbier de Posidonie australienne dans la baie Shark en Australie, s’étendant sur 180 km et couvrant près de 200 km2 (soit la superficie de la ville d'Aix-en-Provence et deux fois la superficie de la commune de Paris),   était principalement composé d'un seul et même individu, polyploïde (2n=40 contre 20 pour ses géniteurs) et donc vraisemblablement stérile, un spécimen qui se serait développé pendant 4 500 ans. Cette plante est le plus grand organisme connu de la planète[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des océanographes se sont rendu compte qu'un herbier de Posidonie australienne dans la baie Shark en Australie, s’étendant sur 180 km et couvrant près de 200 km2 (soit la superficie de la ville d'Aix-en-Provence et deux fois la superficie de la commune de Paris),   était principalement composé d'un seul et même individu, polyploïde (2n=40 contre 20 pour ses géniteurs) et donc vraisemblablement stérile, un spécimen qui se serait développé pendant 4 500 ans. Cette plante est le plus grand organisme connu de la planète.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Posidonia australis a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Posidonia australis a pour synonymes :
 Alga australis (Hook.f.) Kuntze
 Caulinia australiana F.Muell.
 Caulinia oceanica R.Br.</t>
